--- a/kma_mm/kma_be/src/exports/excel/ket_qua_nam_hoc_2021-2022.xlsx
+++ b/kma_mm/kma_be/src/exports/excel/ket_qua_nam_hoc_2021-2022.xlsx
@@ -6,6 +6,9 @@
   <sheets>
     <sheet sheetId="1" name="Kết quả năm học" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Kết quả năm học'!$13:$14</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -25,7 +28,7 @@
     <t>Độc lập - Tự do - Hạnh phúc</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 1 tháng 7 năm 2025</t>
+    <t>Hà Nội, ngày 20 tháng 8 năm 2025</t>
   </si>
   <si>
     <t>KẾT QUẢ HỌC TẬP</t>
@@ -1655,7 +1658,8 @@
     <mergeCell ref="H33:L33"/>
     <mergeCell ref="H34:L34"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.2" bottom="0.2" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>
 </worksheet>
 </file>